--- a/3ydng.xlsx
+++ b/3ydng.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="14355" windowHeight="7230" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="14355" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="Framework" sheetId="1" r:id="rId1"/>
@@ -1041,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2401,8 +2401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/3ydng.xlsx
+++ b/3ydng.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="14355" windowHeight="7230"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="14355" windowHeight="7230" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Framework" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="245">
   <si>
     <t>CreatedBy</t>
   </si>
@@ -309,12 +309,18 @@
     <t>BRRW</t>
   </si>
   <si>
+    <t>PAY</t>
+  </si>
+  <si>
     <t>ACCTTYP</t>
   </si>
   <si>
     <t>Account Type</t>
   </si>
   <si>
+    <t>EXPNS</t>
+  </si>
+  <si>
     <t>RPAY</t>
   </si>
   <si>
@@ -357,12 +363,6 @@
     <t>MISC</t>
   </si>
   <si>
-    <t>Miscellaneous</t>
-  </si>
-  <si>
-    <t>RVRSL</t>
-  </si>
-  <si>
     <t>Client Document Type</t>
   </si>
   <si>
@@ -576,9 +576,6 @@
     <t>RTRN</t>
   </si>
   <si>
-    <t>Reversal</t>
-  </si>
-  <si>
     <t>Return</t>
   </si>
   <si>
@@ -700,14 +697,82 @@
   </si>
   <si>
     <t>TranStatusCd</t>
+  </si>
+  <si>
+    <t>MISCD</t>
+  </si>
+  <si>
+    <t>MISCC</t>
+  </si>
+  <si>
+    <t>Miscellaneous Debit</t>
+  </si>
+  <si>
+    <t>Miscellaneous Credit</t>
+  </si>
+  <si>
+    <t>Misc Dbt</t>
+  </si>
+  <si>
+    <t>Misc Crdt</t>
+  </si>
+  <si>
+    <t>Repay</t>
+  </si>
+  <si>
+    <t>RVRSLC</t>
+  </si>
+  <si>
+    <t>RVRSLD</t>
+  </si>
+  <si>
+    <t>Reversal Credit</t>
+  </si>
+  <si>
+    <t>Reversal Debit</t>
+  </si>
+  <si>
+    <t>Reverse Dbt</t>
+  </si>
+  <si>
+    <t>Reverse Crdt</t>
+  </si>
+  <si>
+    <t>CONS</t>
+  </si>
+  <si>
+    <t>Consignment</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Miscellaneous Account</t>
+  </si>
+  <si>
+    <t>Asset Account</t>
+  </si>
+  <si>
+    <t>ASST</t>
+  </si>
+  <si>
+    <t>Expense Account</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -735,9 +800,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1041,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,8 +1285,8 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,7 +1429,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -1394,7 +1460,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -1405,10 +1471,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" t="s">
         <v>192</v>
-      </c>
-      <c r="B13" t="s">
-        <v>193</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1424,7 +1490,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
@@ -1449,10 +1515,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" t="s">
         <v>213</v>
-      </c>
-      <c r="B18" t="s">
-        <v>214</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
@@ -1496,7 +1562,7 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
@@ -1510,7 +1576,7 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
@@ -1524,7 +1590,7 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C25" t="s">
         <v>34</v>
@@ -1673,7 +1739,7 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C41" t="s">
         <v>34</v>
@@ -1748,7 +1814,7 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C49" t="s">
         <v>34</v>
@@ -1826,7 +1892,7 @@
         <v>134</v>
       </c>
       <c r="B57" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C57" t="s">
         <v>34</v>
@@ -1943,7 +2009,7 @@
         <v>142</v>
       </c>
       <c r="B69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C69" t="s">
         <v>34</v>
@@ -1977,7 +2043,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2070,7 +2136,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,7 +2299,7 @@
         <v>162</v>
       </c>
       <c r="B14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
@@ -2247,7 +2313,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
@@ -2261,7 +2327,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
@@ -2275,7 +2341,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C17" t="s">
         <v>34</v>
@@ -2289,10 +2355,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" t="s">
         <v>186</v>
-      </c>
-      <c r="C18" t="s">
-        <v>187</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -2312,28 +2378,28 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2343,10 +2409,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C30" t="s">
         <v>34</v>
@@ -2360,7 +2426,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C31" t="s">
         <v>34</v>
@@ -2374,16 +2440,16 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F32">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2399,10 +2465,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2410,7 +2476,7 @@
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2467,13 +2533,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>231</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -2487,13 +2553,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>110</v>
+        <v>225</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>227</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>229</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -2507,36 +2573,27 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>112</v>
+        <v>226</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>228</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>152</v>
+        <v>232</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>234</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -2547,39 +2604,30 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>168</v>
+        <v>233</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="D8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
@@ -2587,205 +2635,219 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>183</v>
       </c>
-      <c r="C10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D10" t="s">
-        <v>185</v>
-      </c>
-      <c r="E10">
+      <c r="C12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" t="s">
-        <v>155</v>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>239</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" t="s">
+        <v>240</v>
+      </c>
+      <c r="D14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>158</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C19" t="s">
         <v>159</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D19" t="s">
         <v>159</v>
       </c>
-      <c r="E14">
+      <c r="E19">
         <v>2</v>
       </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" t="s">
-        <v>156</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" t="s">
-        <v>99</v>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>100</v>
       </c>
-      <c r="C20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="C24" t="s">
         <v>101</v>
-      </c>
-      <c r="C21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26">
         <v>2</v>
       </c>
-      <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>175</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2799,13 +2861,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>181</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="D30" t="s">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2817,63 +2879,66 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>177</v>
-      </c>
-      <c r="C31" t="s">
-        <v>178</v>
-      </c>
-      <c r="D31" t="s">
-        <v>178</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>179</v>
-      </c>
-      <c r="C32" t="s">
-        <v>180</v>
-      </c>
-      <c r="D32" t="s">
-        <v>180</v>
-      </c>
-      <c r="E32">
-        <v>4</v>
-      </c>
-      <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" t="s">
+        <v>173</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>128</v>
+      <c r="B35" t="s">
+        <v>181</v>
       </c>
       <c r="C35" t="s">
-        <v>129</v>
+        <v>182</v>
+      </c>
+      <c r="D35" t="s">
+        <v>182</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="D36" t="s">
-        <v>161</v>
+        <v>178</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
       </c>
       <c r="F36" t="s">
         <v>21</v>
@@ -2884,13 +2949,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="C37" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="D37" t="s">
-        <v>150</v>
+        <v>180</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
       </c>
       <c r="F37" t="s">
         <v>21</v>
@@ -2901,13 +2969,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>151</v>
+        <v>244</v>
       </c>
       <c r="D38" t="s">
-        <v>151</v>
+        <v>244</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
       </c>
       <c r="F38" t="s">
         <v>21</v>
@@ -2916,94 +2987,80 @@
         <v>21</v>
       </c>
     </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>243</v>
+      </c>
+      <c r="C39" t="s">
+        <v>242</v>
+      </c>
+      <c r="D39" t="s">
+        <v>242</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="F39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>71</v>
+      <c r="B40" t="s">
+        <v>112</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>241</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" t="s">
-        <v>83</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-      <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
+        <v>241</v>
+      </c>
+      <c r="E40">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>74</v>
+      <c r="A43" t="s">
+        <v>128</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43">
-        <v>3</v>
-      </c>
-      <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>75</v>
+      <c r="B44" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="C45" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F45" t="s">
         <v>21</v>
@@ -3014,16 +3071,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="D46" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="F46" t="s">
         <v>21</v>
@@ -3032,43 +3086,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>78</v>
-      </c>
-    </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>79</v>
+      <c r="A48" t="s">
+        <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D48" t="s">
-        <v>83</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>21</v>
@@ -3079,16 +3119,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" t="s">
         <v>21</v>
@@ -3099,84 +3139,86 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" t="s">
         <v>87</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D54" t="s">
         <v>87</v>
       </c>
-      <c r="E51">
-        <v>4</v>
-      </c>
-      <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" t="s">
-        <v>89</v>
-      </c>
-      <c r="D52" t="s">
-        <v>89</v>
-      </c>
-      <c r="E52">
-        <v>5</v>
-      </c>
-      <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>90</v>
-      </c>
-      <c r="C54" t="s">
-        <v>113</v>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" t="s">
-        <v>115</v>
-      </c>
-      <c r="D55" t="s">
-        <v>115</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>21</v>
+      <c r="A55" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="D56" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
         <v>21</v>
@@ -3187,16 +3229,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="C57" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="D57" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="E57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
         <v>21</v>
@@ -3207,16 +3249,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="C58" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="D58" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="E58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F58" t="s">
         <v>21</v>
@@ -3227,16 +3269,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="C59" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="D59" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="E59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
         <v>21</v>
@@ -3247,16 +3289,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="C60" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="D60" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="E60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F60" t="s">
         <v>21</v>
@@ -3265,191 +3307,319 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>126</v>
-      </c>
-      <c r="C61" t="s">
-        <v>127</v>
-      </c>
-      <c r="D61" t="s">
-        <v>127</v>
-      </c>
-      <c r="E61">
-        <v>7</v>
-      </c>
-      <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s">
-        <v>21</v>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>195</v>
+      <c r="B63" t="s">
+        <v>114</v>
       </c>
       <c r="C63" t="s">
-        <v>196</v>
+        <v>115</v>
+      </c>
+      <c r="D63" t="s">
+        <v>115</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" t="s">
+        <v>116</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" t="s">
+        <v>118</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" t="s">
+        <v>121</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
+      <c r="F66" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67" t="s">
+        <v>123</v>
+      </c>
+      <c r="E67">
+        <v>5</v>
+      </c>
+      <c r="F67" t="s">
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" t="s">
+        <v>125</v>
+      </c>
+      <c r="D68" t="s">
+        <v>125</v>
+      </c>
+      <c r="E68">
+        <v>6</v>
+      </c>
+      <c r="F68" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" t="s">
+        <v>127</v>
+      </c>
+      <c r="D69" t="s">
+        <v>127</v>
+      </c>
+      <c r="E69">
+        <v>7</v>
+      </c>
+      <c r="F69" t="s">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>196</v>
+      </c>
+      <c r="C72" t="s">
+        <v>204</v>
+      </c>
+      <c r="D72" t="s">
+        <v>204</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>197</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C73" t="s">
         <v>205</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D73" t="s">
         <v>205</v>
       </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>198</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C74" t="s">
         <v>206</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D74" t="s">
         <v>206</v>
       </c>
-      <c r="E65">
-        <v>2</v>
-      </c>
-      <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>199</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C75" t="s">
         <v>207</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D75" t="s">
         <v>207</v>
       </c>
-      <c r="E66">
-        <v>3</v>
-      </c>
-      <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+      <c r="E75">
+        <v>4</v>
+      </c>
+      <c r="F75" t="s">
+        <v>21</v>
+      </c>
+      <c r="G75" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>200</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C76" t="s">
         <v>208</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D76" t="s">
         <v>208</v>
       </c>
-      <c r="E67">
-        <v>4</v>
-      </c>
-      <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+      <c r="E76">
+        <v>5</v>
+      </c>
+      <c r="F76" t="s">
+        <v>21</v>
+      </c>
+      <c r="G76" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>201</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C77" t="s">
         <v>209</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D77" t="s">
         <v>209</v>
       </c>
-      <c r="E68">
-        <v>5</v>
-      </c>
-      <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+      <c r="E77">
+        <v>6</v>
+      </c>
+      <c r="F77" t="s">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>202</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C78" t="s">
         <v>210</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D78" t="s">
         <v>210</v>
       </c>
-      <c r="E69">
-        <v>6</v>
-      </c>
-      <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+      <c r="E78">
+        <v>7</v>
+      </c>
+      <c r="F78" t="s">
+        <v>21</v>
+      </c>
+      <c r="G78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>203</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C79" t="s">
         <v>211</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D79" t="s">
         <v>211</v>
       </c>
-      <c r="E70">
-        <v>7</v>
-      </c>
-      <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>204</v>
-      </c>
-      <c r="C71" t="s">
-        <v>212</v>
-      </c>
-      <c r="D71" t="s">
-        <v>212</v>
-      </c>
-      <c r="E71">
+      <c r="E79">
         <v>8</v>
       </c>
-      <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="F79" t="s">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3460,10 +3630,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3481,23 +3651,693 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" t="s">
+        <v>226</v>
+      </c>
+      <c r="E15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" t="s">
+        <v>225</v>
+      </c>
+      <c r="E24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" t="s">
+        <v>226</v>
+      </c>
+      <c r="E25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" t="s">
+        <v>232</v>
+      </c>
+      <c r="E26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" t="s">
+        <v>233</v>
+      </c>
+      <c r="E27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" t="s">
+        <v>238</v>
+      </c>
+      <c r="E28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" t="s">
+        <v>171</v>
+      </c>
+      <c r="E32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" t="s">
+        <v>179</v>
+      </c>
+      <c r="D33" t="s">
+        <v>183</v>
+      </c>
+      <c r="E33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" t="s">
+        <v>225</v>
+      </c>
+      <c r="E34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" t="s">
+        <v>179</v>
+      </c>
+      <c r="D35" t="s">
+        <v>226</v>
+      </c>
+      <c r="E35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" t="s">
+        <v>232</v>
+      </c>
+      <c r="E36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" t="s">
+        <v>179</v>
+      </c>
+      <c r="D37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" t="s">
+        <v>238</v>
+      </c>
+      <c r="E38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" t="s">
+        <v>179</v>
+      </c>
+      <c r="D39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" t="s">
+        <v>225</v>
+      </c>
+      <c r="E42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" t="s">
+        <v>232</v>
+      </c>
+      <c r="E43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" t="s">
+        <v>168</v>
+      </c>
+      <c r="E44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" t="s">
+        <v>243</v>
+      </c>
+      <c r="D47" t="s">
+        <v>168</v>
+      </c>
+      <c r="E47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" t="s">
+        <v>243</v>
+      </c>
+      <c r="D48" t="s">
+        <v>171</v>
+      </c>
+      <c r="E48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>183</v>
+      </c>
+      <c r="E49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" t="s">
+        <v>172</v>
+      </c>
+      <c r="D62" t="s">
+        <v>94</v>
+      </c>
+      <c r="E62" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" t="s">
+        <v>181</v>
+      </c>
+      <c r="D63" t="s">
+        <v>99</v>
+      </c>
+      <c r="E63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>177</v>
+      </c>
+      <c r="D64" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>179</v>
+      </c>
+      <c r="D65" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>98</v>
+      </c>
+      <c r="D66" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>243</v>
+      </c>
+      <c r="D67" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>112</v>
+      </c>
+      <c r="D68" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/3ydng.xlsx
+++ b/3ydng.xlsx
@@ -13,16 +13,17 @@
     <sheet name="Lookp" sheetId="4" r:id="rId4"/>
     <sheet name="LookupValues" sheetId="5" r:id="rId5"/>
     <sheet name="Config" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Business!$A$1:$I$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Business!$B$1:$J$10</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="237">
   <si>
     <t>CreatedBy</t>
   </si>
@@ -120,9 +121,6 @@
     <t>EntryId</t>
   </si>
   <si>
-    <t>EntryType</t>
-  </si>
-  <si>
     <t>AcctId</t>
   </si>
   <si>
@@ -324,12 +322,6 @@
     <t>RPAY</t>
   </si>
   <si>
-    <t>LDGRENTTYP</t>
-  </si>
-  <si>
-    <t>Ledger Entry Type</t>
-  </si>
-  <si>
     <t>DBT</t>
   </si>
   <si>
@@ -528,18 +520,6 @@
     <t>Barrow</t>
   </si>
   <si>
-    <t>PRCHS</t>
-  </si>
-  <si>
-    <t>Purchase</t>
-  </si>
-  <si>
-    <t>Sale</t>
-  </si>
-  <si>
-    <t>SALE</t>
-  </si>
-  <si>
     <t>SUPPLR</t>
   </si>
   <si>
@@ -579,9 +559,6 @@
     <t>Return</t>
   </si>
   <si>
-    <t>IntrstRt</t>
-  </si>
-  <si>
     <t>decimal</t>
   </si>
   <si>
@@ -606,69 +583,12 @@
     <t>TranItemCd</t>
   </si>
   <si>
-    <t>TRNITEM</t>
-  </si>
-  <si>
-    <t>Transaction Item</t>
-  </si>
-  <si>
-    <t>RCRAW</t>
-  </si>
-  <si>
-    <t>RCMILLED</t>
-  </si>
-  <si>
-    <t>RCMILLING</t>
-  </si>
-  <si>
-    <t>RCBRAN</t>
-  </si>
-  <si>
-    <t>HAULING</t>
-  </si>
-  <si>
-    <t>DRYING</t>
-  </si>
-  <si>
-    <t>BAG</t>
-  </si>
-  <si>
-    <t>THREAD</t>
-  </si>
-  <si>
-    <t>Raw Rice</t>
-  </si>
-  <si>
-    <t>Milled Raic</t>
-  </si>
-  <si>
-    <t>Rice Milling</t>
-  </si>
-  <si>
-    <t>Rice Bran</t>
-  </si>
-  <si>
-    <t>Hauling</t>
-  </si>
-  <si>
-    <t>Drying</t>
-  </si>
-  <si>
-    <t>Bag</t>
-  </si>
-  <si>
-    <t>Thread</t>
-  </si>
-  <si>
     <t>TranNote</t>
   </si>
   <si>
     <t>TranNoteId</t>
   </si>
   <si>
-    <t>ActTypTranItem</t>
-  </si>
-  <si>
     <t>AcctSbTypCd</t>
   </si>
   <si>
@@ -699,45 +619,9 @@
     <t>TranStatusCd</t>
   </si>
   <si>
-    <t>MISCD</t>
-  </si>
-  <si>
-    <t>MISCC</t>
-  </si>
-  <si>
-    <t>Miscellaneous Debit</t>
-  </si>
-  <si>
-    <t>Miscellaneous Credit</t>
-  </si>
-  <si>
-    <t>Misc Dbt</t>
-  </si>
-  <si>
-    <t>Misc Crdt</t>
-  </si>
-  <si>
     <t>Repay</t>
   </si>
   <si>
-    <t>RVRSLC</t>
-  </si>
-  <si>
-    <t>RVRSLD</t>
-  </si>
-  <si>
-    <t>Reversal Credit</t>
-  </si>
-  <si>
-    <t>Reversal Debit</t>
-  </si>
-  <si>
-    <t>Reverse Dbt</t>
-  </si>
-  <si>
-    <t>Reverse Crdt</t>
-  </si>
-  <si>
     <t>CONS</t>
   </si>
   <si>
@@ -757,6 +641,99 @@
   </si>
   <si>
     <t>Expense Account</t>
+  </si>
+  <si>
+    <t>Transaction Entry Type</t>
+  </si>
+  <si>
+    <t>TRNENTTYP</t>
+  </si>
+  <si>
+    <t>SELL</t>
+  </si>
+  <si>
+    <t>BUY</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>OWNER</t>
+  </si>
+  <si>
+    <t>BRROW</t>
+  </si>
+  <si>
+    <t>RCV</t>
+  </si>
+  <si>
+    <t>TranBrkdwn</t>
+  </si>
+  <si>
+    <t>TranBreakDwnId</t>
+  </si>
+  <si>
+    <t>RefTranId</t>
+  </si>
+  <si>
+    <t>bgint</t>
+  </si>
+  <si>
+    <t>RVRSL</t>
+  </si>
+  <si>
+    <t>RVRSD</t>
+  </si>
+  <si>
+    <t>Reversed</t>
+  </si>
+  <si>
+    <t>ADJSTMNT</t>
+  </si>
+  <si>
+    <t>Adjustment</t>
+  </si>
+  <si>
+    <t>EntryTypeCd</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>Reversal</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>CONST</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>FeeCd</t>
+  </si>
+  <si>
+    <t>FeeAmount</t>
+  </si>
+  <si>
+    <t>TranFee</t>
+  </si>
+  <si>
+    <t>TranFeeId</t>
+  </si>
+  <si>
+    <t>AcctRate</t>
+  </si>
+  <si>
+    <t>AcctRateId</t>
+  </si>
+  <si>
+    <t>RateCd</t>
   </si>
 </sst>
 </file>
@@ -800,10 +777,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1108,7 +1086,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,7 +1127,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1198,7 +1176,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -1222,21 +1200,21 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
         <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -1244,10 +1222,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1255,10 +1233,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1266,10 +1244,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>10</v>
@@ -1282,758 +1260,955 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I70"/>
+  <dimension ref="B1:J65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>232</v>
+      </c>
+      <c r="C22" t="s">
+        <v>233</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>232</v>
+      </c>
+      <c r="C24" t="s">
+        <v>230</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>232</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>234</v>
+      </c>
+      <c r="C35" t="s">
+        <v>235</v>
+      </c>
+      <c r="D35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>234</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37" t="s">
+        <v>236</v>
+      </c>
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>234</v>
+      </c>
+      <c r="C38" t="s">
+        <v>229</v>
+      </c>
+      <c r="D38" t="s">
+        <v>178</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="H39" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="J39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40">
+        <v>50</v>
+      </c>
+      <c r="H40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42">
+        <v>50</v>
+      </c>
+      <c r="H42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" t="s">
+        <v>192</v>
+      </c>
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
+        <v>193</v>
+      </c>
+      <c r="D49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
+      <c r="D51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54">
         <v>10</v>
       </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>217</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9">
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" t="s">
+        <v>194</v>
+      </c>
+      <c r="D55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B13" t="s">
-        <v>192</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>212</v>
-      </c>
-      <c r="B18" t="s">
-        <v>213</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>132</v>
       </c>
-      <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" t="s">
-        <v>222</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24">
+      <c r="D57" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" t="s">
-        <v>223</v>
-      </c>
-      <c r="C25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>130</v>
-      </c>
-      <c r="B31" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>130</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>132</v>
       </c>
-      <c r="C33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37">
-        <v>10</v>
-      </c>
-      <c r="G37" t="s">
-        <v>26</v>
-      </c>
-      <c r="I37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>145</v>
-      </c>
-      <c r="C38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38">
+      <c r="C58" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58">
         <v>50</v>
       </c>
-      <c r="G38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>146</v>
-      </c>
-      <c r="C39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39">
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60">
         <v>50</v>
       </c>
-      <c r="G40" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" t="s">
+        <v>137</v>
+      </c>
+      <c r="D61" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61">
         <v>50</v>
       </c>
-      <c r="B43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62">
         <v>50</v>
       </c>
-      <c r="B44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" t="s">
-        <v>34</v>
-      </c>
-      <c r="D48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" t="s">
-        <v>220</v>
-      </c>
-      <c r="C49" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" t="s">
-        <v>34</v>
-      </c>
-      <c r="D52">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>134</v>
-      </c>
-      <c r="B55" t="s">
-        <v>134</v>
-      </c>
-      <c r="C55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>134</v>
-      </c>
-      <c r="B56" t="s">
-        <v>39</v>
-      </c>
-      <c r="C56" t="s">
-        <v>34</v>
-      </c>
-      <c r="D56">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>134</v>
-      </c>
-      <c r="B57" t="s">
-        <v>221</v>
-      </c>
-      <c r="C57" t="s">
-        <v>34</v>
-      </c>
-      <c r="D57">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>135</v>
-      </c>
-      <c r="B60" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>135</v>
-      </c>
-      <c r="B61" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61" t="s">
-        <v>34</v>
-      </c>
-      <c r="D61">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>135</v>
-      </c>
-      <c r="B62" t="s">
-        <v>137</v>
-      </c>
-      <c r="C62" t="s">
-        <v>34</v>
-      </c>
-      <c r="D62">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>135</v>
-      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
-      </c>
-      <c r="D63">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>135</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="D63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>139</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
-      </c>
-      <c r="D64">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>135</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D64" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
-      </c>
-      <c r="D65">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>135</v>
-      </c>
-      <c r="B66" t="s">
         <v>141</v>
       </c>
-      <c r="C66" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>142</v>
-      </c>
-      <c r="B68" t="s">
-        <v>143</v>
-      </c>
-      <c r="C68" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>142</v>
-      </c>
-      <c r="B69" t="s">
-        <v>220</v>
-      </c>
-      <c r="C69" t="s">
-        <v>34</v>
-      </c>
-      <c r="D69">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>142</v>
-      </c>
-      <c r="B70" t="s">
-        <v>144</v>
-      </c>
-      <c r="C70" t="s">
-        <v>34</v>
-      </c>
-      <c r="D70">
+      <c r="D65" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I8"/>
+  <autoFilter ref="B1:J10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2043,7 +2218,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2095,7 +2270,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>32</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -2133,15 +2308,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2176,13 +2351,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -2192,11 +2367,14 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>50</v>
@@ -2204,13 +2382,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
         <v>61</v>
       </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -2220,11 +2398,14 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -2234,44 +2415,56 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2281,11 +2474,14 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2296,13 +2492,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -2312,11 +2508,14 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>159</v>
+      </c>
       <c r="B15" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -2326,11 +2525,14 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>159</v>
+      </c>
       <c r="B16" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>10</v>
@@ -2340,122 +2542,132 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>159</v>
+      </c>
       <c r="B17" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>10</v>
       </c>
-      <c r="I17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C18" t="s">
-        <v>186</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24">
         <v>10</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>18</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
         <v>26</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>214</v>
-      </c>
-      <c r="B20" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>187</v>
-      </c>
-      <c r="B27" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>59</v>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>190</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30">
-        <v>10</v>
-      </c>
-      <c r="I30" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
       <c r="B31" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31">
-        <v>10</v>
-      </c>
-      <c r="I31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>188</v>
-      </c>
-      <c r="C32" t="s">
-        <v>186</v>
-      </c>
-      <c r="E32">
-        <v>4</v>
-      </c>
-      <c r="F32">
+        <v>178</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
         <v>18</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2465,10 +2677,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2481,45 +2693,45 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
         <v>65</v>
-      </c>
-      <c r="F1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2533,13 +2745,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -2553,13 +2765,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
         <v>225</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>227</v>
-      </c>
-      <c r="D5" t="s">
-        <v>229</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -2573,27 +2785,36 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" t="s">
         <v>226</v>
       </c>
-      <c r="C6" t="s">
-        <v>228</v>
-      </c>
       <c r="D6" t="s">
-        <v>230</v>
+        <v>226</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>232</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
-        <v>234</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>237</v>
+        <v>150</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -2604,30 +2825,39 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="C8" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="D8" t="s">
-        <v>236</v>
+        <v>210</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
@@ -2635,16 +2865,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D10" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -2655,106 +2885,84 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>183</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="D12" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="C13" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="D13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" t="s">
-        <v>240</v>
-      </c>
-      <c r="D14" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" t="s">
-        <v>155</v>
+        <v>223</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>160</v>
+      <c r="A18" t="s">
+        <v>151</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" t="s">
-        <v>161</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" t="s">
         <v>158</v>
       </c>
-      <c r="C19" t="s">
-        <v>159</v>
-      </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>21</v>
@@ -2765,7 +2973,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C20" t="s">
         <v>156</v>
@@ -2774,151 +2982,162 @@
         <v>156</v>
       </c>
       <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21">
         <v>3</v>
       </c>
-      <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" t="s">
-        <v>101</v>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" t="s">
+        <v>221</v>
+      </c>
+      <c r="D22" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>102</v>
+      <c r="A25" t="s">
+        <v>207</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27">
         <v>2</v>
       </c>
-      <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
         <v>96</v>
-      </c>
-      <c r="C28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" t="s">
-        <v>109</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31">
         <v>2</v>
       </c>
-      <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>174</v>
-      </c>
-      <c r="C33" t="s">
-        <v>175</v>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>172</v>
+      <c r="A34" t="s">
+        <v>167</v>
       </c>
       <c r="C34" t="s">
-        <v>173</v>
-      </c>
-      <c r="D34" t="s">
-        <v>173</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="C35" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="D35" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
         <v>21</v>
@@ -2929,16 +3148,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C36" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D36" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
         <v>21</v>
@@ -2949,16 +3168,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C37" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D37" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" t="s">
         <v>21</v>
@@ -2969,16 +3188,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="C38" t="s">
-        <v>244</v>
+        <v>173</v>
       </c>
       <c r="D38" t="s">
-        <v>244</v>
+        <v>173</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
         <v>21</v>
@@ -2989,16 +3208,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>243</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="D39" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="E39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F39" t="s">
         <v>21</v>
@@ -3009,58 +3228,61 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="C40" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="D40" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="F40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" t="s">
+        <v>202</v>
+      </c>
+      <c r="D41" t="s">
+        <v>202</v>
+      </c>
+      <c r="E41">
         <v>7</v>
       </c>
-      <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" t="s">
-        <v>129</v>
+      <c r="F41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>160</v>
+      <c r="A44" t="s">
+        <v>125</v>
       </c>
       <c r="C44" t="s">
-        <v>161</v>
-      </c>
-      <c r="D44" t="s">
-        <v>161</v>
-      </c>
-      <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C45" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D45" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F45" t="s">
         <v>21</v>
@@ -3071,13 +3293,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D46" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F46" t="s">
         <v>21</v>
@@ -3086,49 +3308,46 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" t="s">
-        <v>92</v>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" t="s">
+        <v>148</v>
+      </c>
+      <c r="F47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>72</v>
+      <c r="A49" t="s">
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D49" t="s">
-        <v>83</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
         <v>21</v>
@@ -3139,106 +3358,106 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>74</v>
-      </c>
-      <c r="C51" t="s">
-        <v>85</v>
-      </c>
-      <c r="D51" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51">
-        <v>3</v>
-      </c>
-      <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53" t="s">
-        <v>86</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>77</v>
-      </c>
-      <c r="C54" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" t="s">
-        <v>87</v>
-      </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
-      <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" t="s">
-        <v>83</v>
-      </c>
-      <c r="D56" t="s">
-        <v>83</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D57" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
         <v>21</v>
@@ -3249,16 +3468,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D58" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F58" t="s">
         <v>21</v>
@@ -3269,16 +3488,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C59" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D59" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F59" t="s">
         <v>21</v>
@@ -3289,337 +3508,189 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" t="s">
         <v>88</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D61" t="s">
+        <v>88</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>89</v>
       </c>
-      <c r="D60" t="s">
-        <v>89</v>
-      </c>
-      <c r="E60">
-        <v>5</v>
-      </c>
-      <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>90</v>
-      </c>
-      <c r="C62" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>114</v>
-      </c>
       <c r="C63" t="s">
-        <v>115</v>
-      </c>
-      <c r="D63" t="s">
-        <v>115</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" t="s">
+        <v>112</v>
+      </c>
+      <c r="D64" t="s">
+        <v>112</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" t="s">
+        <v>113</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" t="s">
+        <v>115</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" t="s">
+        <v>118</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+      <c r="F67" t="s">
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>119</v>
       </c>
-      <c r="C64" t="s">
-        <v>116</v>
-      </c>
-      <c r="D64" t="s">
-        <v>116</v>
-      </c>
-      <c r="E64">
-        <v>2</v>
-      </c>
-      <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" t="s">
-        <v>118</v>
-      </c>
-      <c r="D65" t="s">
-        <v>118</v>
-      </c>
-      <c r="E65">
-        <v>3</v>
-      </c>
-      <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+      <c r="C68" t="s">
         <v>120</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D68" t="s">
+        <v>120</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+      <c r="F68" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>121</v>
       </c>
-      <c r="D66" t="s">
-        <v>121</v>
-      </c>
-      <c r="E66">
-        <v>4</v>
-      </c>
-      <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+      <c r="C69" t="s">
         <v>122</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D69" t="s">
+        <v>122</v>
+      </c>
+      <c r="E69">
+        <v>6</v>
+      </c>
+      <c r="F69" t="s">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>123</v>
       </c>
-      <c r="D67" t="s">
-        <v>123</v>
-      </c>
-      <c r="E67">
-        <v>5</v>
-      </c>
-      <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+      <c r="C70" t="s">
         <v>124</v>
       </c>
-      <c r="C68" t="s">
-        <v>125</v>
-      </c>
-      <c r="D68" t="s">
-        <v>125</v>
-      </c>
-      <c r="E68">
-        <v>6</v>
-      </c>
-      <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>126</v>
-      </c>
-      <c r="C69" t="s">
-        <v>127</v>
-      </c>
-      <c r="D69" t="s">
-        <v>127</v>
-      </c>
-      <c r="E69">
+      <c r="D70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E70">
         <v>7</v>
       </c>
-      <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>194</v>
-      </c>
-      <c r="C71" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>196</v>
-      </c>
-      <c r="C72" t="s">
-        <v>204</v>
-      </c>
-      <c r="D72" t="s">
-        <v>204</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>197</v>
-      </c>
-      <c r="C73" t="s">
-        <v>205</v>
-      </c>
-      <c r="D73" t="s">
-        <v>205</v>
-      </c>
-      <c r="E73">
-        <v>2</v>
-      </c>
-      <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>198</v>
-      </c>
-      <c r="C74" t="s">
-        <v>206</v>
-      </c>
-      <c r="D74" t="s">
-        <v>206</v>
-      </c>
-      <c r="E74">
-        <v>3</v>
-      </c>
-      <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>199</v>
-      </c>
-      <c r="C75" t="s">
-        <v>207</v>
-      </c>
-      <c r="D75" t="s">
-        <v>207</v>
-      </c>
-      <c r="E75">
-        <v>4</v>
-      </c>
-      <c r="F75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>200</v>
-      </c>
-      <c r="C76" t="s">
-        <v>208</v>
-      </c>
-      <c r="D76" t="s">
-        <v>208</v>
-      </c>
-      <c r="E76">
-        <v>5</v>
-      </c>
-      <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>201</v>
-      </c>
-      <c r="C77" t="s">
-        <v>209</v>
-      </c>
-      <c r="D77" t="s">
-        <v>209</v>
-      </c>
-      <c r="E77">
-        <v>6</v>
-      </c>
-      <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>202</v>
-      </c>
-      <c r="C78" t="s">
-        <v>210</v>
-      </c>
-      <c r="D78" t="s">
-        <v>210</v>
-      </c>
-      <c r="E78">
-        <v>7</v>
-      </c>
-      <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>203</v>
-      </c>
-      <c r="C79" t="s">
-        <v>211</v>
-      </c>
-      <c r="D79" t="s">
-        <v>211</v>
-      </c>
-      <c r="E79">
-        <v>8</v>
-      </c>
-      <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="F70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3630,10 +3701,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3652,692 +3723,465 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D5" t="s">
-        <v>225</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D6" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E7" t="s">
-        <v>102</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E8" t="s">
-        <v>103</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" t="s">
-        <v>102</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>208</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" t="s">
         <v>99</v>
-      </c>
-      <c r="E13" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
-        <v>225</v>
+        <v>149</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D15" t="s">
-        <v>226</v>
-      </c>
-      <c r="E15" t="s">
-        <v>103</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D16" t="s">
-        <v>233</v>
-      </c>
-      <c r="E16" t="s">
-        <v>102</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D17" t="s">
-        <v>232</v>
-      </c>
-      <c r="E17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" t="s">
-        <v>181</v>
-      </c>
-      <c r="D18" t="s">
-        <v>152</v>
-      </c>
-      <c r="E18" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" t="s">
+        <v>228</v>
+      </c>
+      <c r="E20" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D21" t="s">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D22" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D24" t="s">
-        <v>225</v>
-      </c>
-      <c r="E24" t="s">
-        <v>102</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D25" t="s">
-        <v>226</v>
-      </c>
-      <c r="E25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" t="s">
-        <v>232</v>
-      </c>
-      <c r="E26" t="s">
-        <v>103</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D27" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D28" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>103</v>
+      </c>
+      <c r="C30" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D32" t="s">
-        <v>171</v>
-      </c>
-      <c r="E32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" t="s">
-        <v>179</v>
-      </c>
-      <c r="D33" t="s">
-        <v>183</v>
-      </c>
-      <c r="E33" t="s">
-        <v>103</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C34" t="s">
-        <v>179</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s">
-        <v>225</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>179</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E35" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>179</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
-        <v>232</v>
+        <v>94</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" t="s">
-        <v>179</v>
-      </c>
-      <c r="D37" t="s">
-        <v>233</v>
-      </c>
-      <c r="E37" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" t="s">
-        <v>179</v>
-      </c>
-      <c r="D38" t="s">
-        <v>238</v>
-      </c>
-      <c r="E38" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" t="s">
-        <v>179</v>
-      </c>
-      <c r="D39" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" t="s">
-        <v>225</v>
-      </c>
-      <c r="E42" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>106</v>
-      </c>
-      <c r="C43" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" t="s">
-        <v>232</v>
-      </c>
-      <c r="E43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" t="s">
-        <v>168</v>
-      </c>
-      <c r="E44" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E45" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" t="s">
-        <v>243</v>
-      </c>
-      <c r="D47" t="s">
-        <v>168</v>
-      </c>
-      <c r="E47" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>106</v>
-      </c>
-      <c r="C48" t="s">
-        <v>243</v>
-      </c>
-      <c r="D48" t="s">
-        <v>171</v>
-      </c>
-      <c r="E48" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>183</v>
-      </c>
-      <c r="E49" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" t="s">
-        <v>95</v>
-      </c>
-      <c r="E52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>106</v>
-      </c>
-      <c r="C53" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" t="s">
-        <v>172</v>
-      </c>
-      <c r="D62" t="s">
-        <v>94</v>
-      </c>
-      <c r="E62" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>108</v>
-      </c>
-      <c r="C63" t="s">
-        <v>181</v>
-      </c>
-      <c r="D63" t="s">
         <v>99</v>
-      </c>
-      <c r="E63" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>177</v>
-      </c>
-      <c r="D64" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
-        <v>179</v>
-      </c>
-      <c r="D65" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>98</v>
-      </c>
-      <c r="D66" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
-        <v>243</v>
-      </c>
-      <c r="D67" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>112</v>
-      </c>
-      <c r="D68" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D69" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D70" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D71" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D72" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>